--- a/Index/GP Nr. 26-27.xlsx
+++ b/Index/GP Nr. 26-27.xlsx
@@ -1403,6 +1403,9 @@
       <c r="K20" t="n">
         <v>104.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2343,6 +2346,9 @@
       <c r="K20" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="L20" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3283,6 +3289,9 @@
       <c r="K20" t="n">
         <v>88.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4483,6 +4492,9 @@
       <c r="K20" t="n">
         <v>121.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5423,6 +5435,9 @@
       <c r="K20" t="n">
         <v>79.59999999999999</v>
       </c>
+      <c r="L20" t="n">
+        <v>78.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6363,6 +6378,9 @@
       <c r="K20" t="n">
         <v>111.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>111.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7303,6 +7321,9 @@
       <c r="K20" t="n">
         <v>110.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>110.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8243,6 +8264,9 @@
       <c r="K20" t="n">
         <v>116.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9183,6 +9207,9 @@
       <c r="K20" t="n">
         <v>116.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10386,6 +10413,9 @@
       <c r="K20" t="n">
         <v>119.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>119.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11588,6 +11618,9 @@
       <c r="K20" t="n">
         <v>103.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>103.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12528,6 +12561,9 @@
       <c r="K20" t="n">
         <v>87.09999999999999</v>
       </c>
+      <c r="L20" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13468,6 +13504,9 @@
       <c r="K20" t="n">
         <v>115.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>115.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14408,6 +14447,9 @@
       <c r="K20" t="n">
         <v>116.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>118.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15344,6 +15386,9 @@
       <c r="K20" t="n">
         <v>119.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>120.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16284,6 +16329,9 @@
       <c r="K20" t="n">
         <v>125.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17224,6 +17272,9 @@
       <c r="K20" t="n">
         <v>115</v>
       </c>
+      <c r="L20" t="n">
+        <v>115.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18164,6 +18215,9 @@
       <c r="K20" t="n">
         <v>117.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>119.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19100,6 +19154,9 @@
       <c r="K20" t="n">
         <v>115.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>115.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20040,6 +20097,9 @@
       <c r="K20" t="n">
         <v>117.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21240,6 +21300,9 @@
       <c r="K20" t="n">
         <v>121.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>122.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22180,6 +22243,9 @@
       <c r="K20" t="n">
         <v>104.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23120,6 +23186,9 @@
       <c r="K20" t="n">
         <v>86</v>
       </c>
+      <c r="L20" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24061,6 +24130,9 @@
       <c r="K20" t="n">
         <v>101.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>101.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25001,6 +25073,9 @@
       <c r="K20" t="n">
         <v>114.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>114.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25941,6 +26016,9 @@
       <c r="K20" t="n">
         <v>109.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>109.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27011,6 +27089,9 @@
       <c r="K20" t="n">
         <v>132.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27951,6 +28032,9 @@
       <c r="K20" t="n">
         <v>105.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>105.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28891,6 +28975,9 @@
       <c r="K20" t="n">
         <v>105.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>105.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29831,6 +29918,9 @@
       <c r="K20" t="n">
         <v>121.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>122.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30772,6 +30862,9 @@
       <c r="K20" t="n">
         <v>122.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31712,6 +31805,9 @@
       <c r="K20" t="n">
         <v>123.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32652,6 +32748,9 @@
       <c r="K20" t="n">
         <v>127.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33593,6 +33692,9 @@
       <c r="K20" t="n">
         <v>98.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>98.90000000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34534,6 +34636,9 @@
       <c r="K20" t="n">
         <v>125.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35474,6 +35579,9 @@
       <c r="K20" t="n">
         <v>135.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>144.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36415,6 +36523,9 @@
       <c r="K20" t="n">
         <v>116</v>
       </c>
+      <c r="L20" t="n">
+        <v>116.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37615,6 +37726,9 @@
       <c r="K20" t="n">
         <v>120.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>120.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38555,6 +38669,9 @@
       <c r="K20" t="n">
         <v>121.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39497,6 +39614,9 @@
       <c r="K20" t="n">
         <v>130.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40439,6 +40559,9 @@
       <c r="K20" t="n">
         <v>117.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>118.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41380,6 +41503,9 @@
       <c r="K20" t="n">
         <v>124.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>124.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42320,6 +42446,9 @@
       <c r="K20" t="n">
         <v>117.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>118.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43260,6 +43389,9 @@
       <c r="K20" t="n">
         <v>119.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -44200,6 +44332,9 @@
       <c r="K20" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="L20" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45140,6 +45275,9 @@
       <c r="K20" t="n">
         <v>118</v>
       </c>
+      <c r="L20" t="n">
+        <v>118.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -46080,6 +46218,9 @@
       <c r="K20" t="n">
         <v>120.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>120.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -47020,6 +47161,9 @@
       <c r="K20" t="n">
         <v>130.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -47960,6 +48104,9 @@
       <c r="K20" t="n">
         <v>137.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>138.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -48900,6 +49047,9 @@
       <c r="K20" t="n">
         <v>121.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>122.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -49840,6 +49990,9 @@
       <c r="K20" t="n">
         <v>132.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>132.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -50780,6 +50933,9 @@
       <c r="K20" t="n">
         <v>143.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -51720,6 +51876,9 @@
       <c r="K20" t="n">
         <v>136.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -52660,6 +52819,9 @@
       <c r="K20" t="n">
         <v>123.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -53600,6 +53762,9 @@
       <c r="K20" t="n">
         <v>109.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>110.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -54540,6 +54705,9 @@
       <c r="K20" t="n">
         <v>102.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>102.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -55480,6 +55648,9 @@
       <c r="K20" t="n">
         <v>103.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>104.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -56420,6 +56591,9 @@
       <c r="K20" t="n">
         <v>116</v>
       </c>
+      <c r="L20" t="n">
+        <v>116.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -57360,6 +57534,9 @@
       <c r="K20" t="n">
         <v>108.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>108.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -58300,6 +58477,9 @@
       <c r="K20" t="n">
         <v>123.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>123.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -59240,6 +59420,9 @@
       <c r="K20" t="n">
         <v>121.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>122.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -60181,6 +60364,9 @@
       <c r="K20" t="n">
         <v>123.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -61121,6 +61307,9 @@
       <c r="K20" t="n">
         <v>126.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -62061,6 +62250,9 @@
       <c r="K20" t="n">
         <v>123</v>
       </c>
+      <c r="L20" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -63001,6 +63193,9 @@
       <c r="K20" t="n">
         <v>119.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -64201,6 +64396,9 @@
       <c r="K20" t="n">
         <v>122.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>123.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -65141,6 +65339,9 @@
       <c r="K20" t="n">
         <v>92.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>91.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -66212,6 +66413,9 @@
       <c r="K20" t="n">
         <v>121.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>123.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -67152,6 +67356,9 @@
       <c r="K20" t="n">
         <v>123.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>123.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -68092,6 +68299,9 @@
       <c r="K20" t="n">
         <v>132.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>132.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -69032,6 +69242,9 @@
       <c r="K20" t="n">
         <v>115.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>115.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -69972,6 +70185,9 @@
       <c r="K20" t="n">
         <v>94.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -70912,6 +71128,9 @@
       <c r="K20" t="n">
         <v>91.40000000000001</v>
       </c>
+      <c r="L20" t="n">
+        <v>92.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Index/GP Nr. 26-27.xlsx
+++ b/Index/GP Nr. 26-27.xlsx
@@ -1,85 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GP = 26" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GP = 26 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GP = 26 11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GP = 26 11 2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GP = 26 11 3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GP = 26 12 1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GP = 26 2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GP = 26 20 1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="GP = 26 20 11" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="GP = 26 20 13" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GP = 26 20 14" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="GP = 26 20 16" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="GP = 26 20 4" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="GP = 26 3" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="GP = 26 4" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="GP = 26 5" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="GP = 26 51" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="&#10;GP = 26 51 4" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="GP = 26 51 43" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="GP = 26 51 5" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="GP = 26 51 6" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="GP Nr. 26-2721" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="GP = 26 51 62" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="GP = 26 51 63" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="GP = 26 51 66" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="GP Nr. 26-2725" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="GP = 26 51 7" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="GP = 26 52" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="GP = 26 6" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="&#10;GP = 26 60 11" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="GP = 26 60 12" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="GP = 26 7" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="GP = 26 70 1" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="GP = 26 70 2" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="GP = 26 70 21" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="GP = 27" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="GP = 27 1" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="GP = 27 11" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="GP = 27 11 1" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="GP = 27 11 2" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="GP = 27 11 4" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="GP = 27 11 5" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="GP = 27 11 6" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="GP = 27 12" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="&#10;GP = 27 12 1" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="&#10;GP = 27 12 2" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="GP = 27 12 3" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="GP = 27 12 4" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="GP = 27 2" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="GP = 27 20 1" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="GP = 27 20 2" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="GP = 27 3" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="GP = 27 32" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="GP = 27 32 11" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="GP = 27 32 12" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="GP = 27 32 13" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="GP = 27 32 14" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="GP = 27 33" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="GP = 27 4" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="GP = 27 40 1" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="GP = 27 40 2" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet name="GP = 27 40 3" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet name="GP = 27 5" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet name="GP = 27 51" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet name="&#10;GP = 27 51 1" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet name="GP = 27 51 11" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet name="GP = 27 51 12" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet name="GP = 27 51 13" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet name="GP = 27 51 2" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet name="GP = 27 51 21" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet name="GP = 27 51 28" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet name="GP = 27 52" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet name="GP = 27 9" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 11 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 11 3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 12 1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 20 1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 20 11" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 20 13" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 20 14" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 20 16" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 20 4" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 3" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 4" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 5" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 51" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 26 51 4" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 51 43" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 51 5" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 51 6" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP Nr. 26-2721" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 51 62" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 51 63" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 51 66" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP Nr. 26-2725" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 51 7" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 52" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 6" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 26 60 11" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 60 12" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 7" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 70 1" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 70 2" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 26 70 21" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 1" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 11" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 11 1" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 11 2" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 11 4" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 11 5" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 11 6" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 12" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 27 12 1" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 27 12 2" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 12 3" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 12 4" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 2" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 20 1" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 20 2" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 3" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 32" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 32 11" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 32 12" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 32 13" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 32 14" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 33" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 4" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 40 1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 40 2" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 40 3" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 5" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 51" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 27 51 1" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 51 11" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 51 12" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 51 13" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 51 2" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 51 21" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 51 28" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 52" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 27 9" sheetId="73" state="visible" r:id="rId73"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1406,6 +1406,12 @@
       <c r="L20" t="n">
         <v>105</v>
       </c>
+      <c r="M20" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>102.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2349,6 +2355,12 @@
       <c r="L20" t="n">
         <v>84</v>
       </c>
+      <c r="M20" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="N20" t="n">
+        <v>83.40000000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3292,6 +3304,12 @@
       <c r="L20" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="M20" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4495,6 +4513,12 @@
       <c r="L20" t="n">
         <v>121.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5438,6 +5462,12 @@
       <c r="L20" t="n">
         <v>78.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>76</v>
+      </c>
+      <c r="N20" t="n">
+        <v>79.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6381,6 +6411,12 @@
       <c r="L20" t="n">
         <v>111.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>105.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7324,6 +7360,12 @@
       <c r="L20" t="n">
         <v>110.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>108.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8267,6 +8309,12 @@
       <c r="L20" t="n">
         <v>117.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9210,6 +9258,12 @@
       <c r="L20" t="n">
         <v>117.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10416,6 +10470,12 @@
       <c r="L20" t="n">
         <v>119.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11621,6 +11681,12 @@
       <c r="L20" t="n">
         <v>103.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>101.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12564,6 +12630,12 @@
       <c r="L20" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="M20" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13507,6 +13579,12 @@
       <c r="L20" t="n">
         <v>115.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14450,6 +14528,12 @@
       <c r="L20" t="n">
         <v>118.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15389,6 +15473,12 @@
       <c r="L20" t="n">
         <v>120.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16332,6 +16422,12 @@
       <c r="L20" t="n">
         <v>125.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>123.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17275,6 +17371,12 @@
       <c r="L20" t="n">
         <v>115.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>115.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18218,6 +18320,12 @@
       <c r="L20" t="n">
         <v>119.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19157,6 +19265,12 @@
       <c r="L20" t="n">
         <v>115.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20100,6 +20214,12 @@
       <c r="L20" t="n">
         <v>117.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>118</v>
+      </c>
+      <c r="N20" t="n">
+        <v>114.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21303,6 +21423,12 @@
       <c r="L20" t="n">
         <v>122.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22246,6 +22372,12 @@
       <c r="L20" t="n">
         <v>104.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>102.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23189,6 +23321,12 @@
       <c r="L20" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="M20" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24133,6 +24271,12 @@
       <c r="L20" t="n">
         <v>101.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>99.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25076,6 +25220,12 @@
       <c r="L20" t="n">
         <v>114.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26019,6 +26169,12 @@
       <c r="L20" t="n">
         <v>109.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>108.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27092,6 +27248,12 @@
       <c r="L20" t="n">
         <v>132.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28035,6 +28197,12 @@
       <c r="L20" t="n">
         <v>105.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>105.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28978,6 +29146,12 @@
       <c r="L20" t="n">
         <v>105.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>105</v>
+      </c>
+      <c r="N20" t="n">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29921,6 +30095,12 @@
       <c r="L20" t="n">
         <v>122.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>118.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30865,6 +31045,12 @@
       <c r="L20" t="n">
         <v>123</v>
       </c>
+      <c r="M20" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31808,6 +31994,12 @@
       <c r="L20" t="n">
         <v>125.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>126</v>
+      </c>
+      <c r="N20" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32751,6 +32943,12 @@
       <c r="L20" t="n">
         <v>126.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>124.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33695,6 +33893,12 @@
       <c r="L20" t="n">
         <v>98.90000000000001</v>
       </c>
+      <c r="M20" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="N20" t="n">
+        <v>95.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34639,6 +34843,12 @@
       <c r="L20" t="n">
         <v>127.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>123.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35582,6 +35792,12 @@
       <c r="L20" t="n">
         <v>144.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>128.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36526,6 +36742,12 @@
       <c r="L20" t="n">
         <v>116.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37729,6 +37951,12 @@
       <c r="L20" t="n">
         <v>120.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>118.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38672,6 +38900,12 @@
       <c r="L20" t="n">
         <v>121.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>118.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39617,6 +39851,12 @@
       <c r="L20" t="n">
         <v>129</v>
       </c>
+      <c r="M20" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>124.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40562,6 +40802,12 @@
       <c r="L20" t="n">
         <v>118.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>121</v>
+      </c>
+      <c r="N20" t="n">
+        <v>114.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41506,6 +41752,12 @@
       <c r="L20" t="n">
         <v>124.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>120.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42449,6 +42701,12 @@
       <c r="L20" t="n">
         <v>118.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43392,6 +43650,12 @@
       <c r="L20" t="n">
         <v>120</v>
       </c>
+      <c r="M20" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>116.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -44335,6 +44599,12 @@
       <c r="L20" t="n">
         <v>74.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>74.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45278,6 +45548,12 @@
       <c r="L20" t="n">
         <v>118.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -46221,6 +46497,12 @@
       <c r="L20" t="n">
         <v>120.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -47164,6 +47446,12 @@
       <c r="L20" t="n">
         <v>130.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -48107,6 +48395,12 @@
       <c r="L20" t="n">
         <v>138.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>139</v>
+      </c>
+      <c r="N20" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -49050,6 +49344,12 @@
       <c r="L20" t="n">
         <v>122.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>122.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>116.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -49993,6 +50293,12 @@
       <c r="L20" t="n">
         <v>132.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>129.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -50936,6 +51242,12 @@
       <c r="L20" t="n">
         <v>143.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -51879,6 +52191,12 @@
       <c r="L20" t="n">
         <v>137.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -52822,6 +53140,12 @@
       <c r="L20" t="n">
         <v>124.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>120.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -53765,6 +54089,12 @@
       <c r="L20" t="n">
         <v>110.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>108.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -54708,6 +55038,12 @@
       <c r="L20" t="n">
         <v>102.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>100.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -55651,6 +55987,12 @@
       <c r="L20" t="n">
         <v>104.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>102.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -56594,6 +56936,12 @@
       <c r="L20" t="n">
         <v>116.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -57537,6 +57885,12 @@
       <c r="L20" t="n">
         <v>108.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>116.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -58480,6 +58834,12 @@
       <c r="L20" t="n">
         <v>123.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>118.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -59423,6 +59783,12 @@
       <c r="L20" t="n">
         <v>122.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -60367,6 +60733,12 @@
       <c r="L20" t="n">
         <v>124</v>
       </c>
+      <c r="M20" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -61310,6 +61682,12 @@
       <c r="L20" t="n">
         <v>126.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -62253,6 +62631,12 @@
       <c r="L20" t="n">
         <v>123</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -63196,6 +63580,12 @@
       <c r="L20" t="n">
         <v>121.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -64399,6 +64789,12 @@
       <c r="L20" t="n">
         <v>123.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>118.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -65342,6 +65738,12 @@
       <c r="L20" t="n">
         <v>91.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>91.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -66416,6 +66818,12 @@
       <c r="L20" t="n">
         <v>123.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -67359,6 +67767,12 @@
       <c r="L20" t="n">
         <v>123.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -68302,6 +68716,12 @@
       <c r="L20" t="n">
         <v>132.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -69245,6 +69665,12 @@
       <c r="L20" t="n">
         <v>115.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -70188,6 +70614,12 @@
       <c r="L20" t="n">
         <v>94</v>
       </c>
+      <c r="M20" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>93.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -71131,6 +71563,12 @@
       <c r="L20" t="n">
         <v>92.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>91.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
